--- a/Results/Tables/Module 13b - Alpha Diversity.xlsx
+++ b/Results/Tables/Module 13b - Alpha Diversity.xlsx
@@ -431,26 +431,26 @@
         </is>
       </c>
       <c r="D2">
-        <v>-25.98711417211761</v>
+        <v>-38</v>
       </c>
       <c r="E2">
-        <v>18.5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0.1715359049423548</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="G2">
-        <v>0.2573038574135322</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="H2">
-        <v>-53.99999402865456</v>
+        <v>-63</v>
       </c>
       <c r="I2">
-        <v>7.999998705368689</v>
+        <v>-6</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Wilcoxon rank sum test with continuity correction</t>
+          <t>Wilcoxon rank sum exact test</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -476,26 +476,26 @@
         </is>
       </c>
       <c r="D3">
-        <v>7.389186151777064</v>
+        <v>-85.5</v>
       </c>
       <c r="E3">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6300077619200137</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="G3">
-        <v>0.6300077619200137</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="H3">
-        <v>-56.00000952160035</v>
+        <v>-143</v>
       </c>
       <c r="I3">
-        <v>23.00001542109019</v>
+        <v>-57</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Wilcoxon rank sum test with continuity correction</t>
+          <t>Wilcoxon rank sum exact test</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -521,26 +521,26 @@
         </is>
       </c>
       <c r="D4">
-        <v>28.2854961032688</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>0.0008878715792390575</v>
+        <v>0.01616161616161616</v>
       </c>
       <c r="G4">
-        <v>0.002663614737717172</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="H4">
-        <v>18.99994023308053</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>37.00001026256037</v>
+        <v>38</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Wilcoxon rank sum test with continuity correction</t>
+          <t>Wilcoxon rank sum exact test</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -566,22 +566,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>-28.15796703296703</v>
+        <v>-39.88823529411764</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0.2344988344988345</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="G5">
-        <v>0.3517482517482517</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="H5">
-        <v>-53.75</v>
+        <v>-62.6</v>
       </c>
       <c r="I5">
-        <v>13.76623376623376</v>
+        <v>-3</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="D6">
-        <v>12.28846153846154</v>
+        <v>-97.41578947368421</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5414232825997531</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="G6">
-        <v>0.5414232825997531</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="H6">
-        <v>-67.12997347480105</v>
+        <v>-152.2947368421053</v>
       </c>
       <c r="I6">
-        <v>33.27272727272727</v>
+        <v>-66.5</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>35.4</v>
+        <v>25.4875</v>
       </c>
       <c r="E7">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>0.0001645413410119292</v>
+        <v>0.02828282828282828</v>
       </c>
       <c r="G7">
-        <v>0.0004936240230357877</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="H7">
-        <v>20.5</v>
+        <v>15.36363636363637</v>
       </c>
       <c r="I7">
-        <v>46.32692307692308</v>
+        <v>39.75</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.5859654314914138</v>
+        <v>-0.6927221336339628</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
       <c r="F8">
-        <v>0.01476301476301476</v>
+        <v>0.05927405927405928</v>
       </c>
       <c r="G8">
-        <v>0.04109419991772933</v>
+        <v>0.08891108891108893</v>
       </c>
       <c r="H8">
-        <v>-1.16473401979857</v>
+        <v>-1.43129893413798</v>
       </c>
       <c r="I8">
-        <v>-0.1088327831757745</v>
+        <v>0.06928477356194307</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.4875507824904262</v>
+        <v>-1.037668010616934</v>
       </c>
       <c r="E9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1995886466474702</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="G9">
-        <v>0.1995886466474702</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="H9">
-        <v>-1.083734969667668</v>
+        <v>-1.588773325558037</v>
       </c>
       <c r="I9">
-        <v>0.1674423097495001</v>
+        <v>-0.4515828893180998</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.3828737056471614</v>
+        <v>0.310183443445023</v>
       </c>
       <c r="E10">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>0.02739613327848622</v>
+        <v>0.1535353535353536</v>
       </c>
       <c r="G10">
-        <v>0.04109419991772933</v>
+        <v>0.1535353535353536</v>
       </c>
       <c r="H10">
-        <v>0.04142868123672239</v>
+        <v>-0.1638513498565026</v>
       </c>
       <c r="I10">
-        <v>0.7385822123560746</v>
+        <v>0.8999075628458293</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -836,22 +836,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.05604461297350632</v>
+        <v>-0.05230096000000006</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>0.03791763791763791</v>
+        <v>0.1811521811521812</v>
       </c>
       <c r="G11">
-        <v>0.08885232414644179</v>
+        <v>0.2717282717282717</v>
       </c>
       <c r="H11">
-        <v>-0.1222432262129804</v>
+        <v>-0.1193587199999999</v>
       </c>
       <c r="I11">
-        <v>-0.008682478073200661</v>
+        <v>0.03212320000000013</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.04676432900949395</v>
+        <v>-0.07301599999999997</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.05923488276429453</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="G12">
-        <v>0.08885232414644179</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="H12">
-        <v>-0.1047316149831781</v>
+        <v>-0.15656288</v>
       </c>
       <c r="I12">
-        <v>0.004449366089616325</v>
+        <v>-0.01589151999999994</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -926,22 +926,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.01687154878953634</v>
+        <v>0.02074911999999995</v>
       </c>
       <c r="E13">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F13">
-        <v>0.4807075277663513</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="G13">
-        <v>0.4807075277663513</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="H13">
-        <v>-0.03942038928224767</v>
+        <v>-0.0636742400000001</v>
       </c>
       <c r="I13">
-        <v>0.06728982648715087</v>
+        <v>0.1303875200000001</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
